--- a/Documentation/微信推送与需求报价/微信推送与需求报价功能数据字典.xlsx
+++ b/Documentation/微信推送与需求报价/微信推送与需求报价功能数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>DemandSubscription</t>
   </si>
@@ -27,9 +27,6 @@
     <t>主键，自增ID</t>
   </si>
   <si>
-    <t>推送规则，目前包括：1. 当新的需求更新时即时推送 2. 每天推送一次 3. 一周推送一次</t>
-  </si>
-  <si>
     <t>LastPushTimestamp</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
     <t>需求订阅表概要表</t>
   </si>
   <si>
-    <t>PushRuleId</t>
-  </si>
-  <si>
-    <t>推送规则ID，与DemandPushRule表存在外键关系</t>
-  </si>
-  <si>
     <t>InsertedTimestamp</t>
   </si>
   <si>
@@ -99,22 +90,73 @@
     <t>SubscriptionValue</t>
   </si>
   <si>
-    <t>DemandPushRule</t>
-  </si>
-  <si>
-    <t>RuleId</t>
-  </si>
-  <si>
-    <t>推送规则表</t>
-  </si>
-  <si>
-    <t>TimesOfWeek</t>
-  </si>
-  <si>
-    <t>发送频率，一周几次，最小值为1次，最大值为7次</t>
-  </si>
-  <si>
-    <t>DayOfWeek</t>
+    <t>微信报价功能表</t>
+  </si>
+  <si>
+    <t>DemandQuotes</t>
+  </si>
+  <si>
+    <t>QuoteId</t>
+  </si>
+  <si>
+    <t>DemandId</t>
+  </si>
+  <si>
+    <t>需求ID</t>
+  </si>
+  <si>
+    <t>资源方微信用户UserId，与WechatUser表存在外键关系</t>
+  </si>
+  <si>
+    <t>QuotePrice</t>
+  </si>
+  <si>
+    <t>报价价格</t>
+  </si>
+  <si>
+    <t>AcceptStatus</t>
+  </si>
+  <si>
+    <t>报价结果，需求方是否同意，是否同意或者拒绝或者等待回复</t>
+  </si>
+  <si>
+    <t>DemandQuoteHistory</t>
+  </si>
+  <si>
+    <t>微信报价留言回复记录表</t>
+  </si>
+  <si>
+    <t>QuoteHistoryId</t>
+  </si>
+  <si>
+    <t>对应的报价ID，与DemandQuotes表存在外键关系</t>
+  </si>
+  <si>
+    <t>留言人，资源方或者需求方UserId，与WeeChatUser表存在外键关系</t>
+  </si>
+  <si>
+    <t>HasRead</t>
+  </si>
+  <si>
+    <t>该留言是否被查看，如果已被查看，不提示新消息</t>
+  </si>
+  <si>
+    <t>联系人称呼或姓名</t>
+  </si>
+  <si>
+    <t>ContactPhoneNumber</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>留言内容</t>
   </si>
 </sst>
 </file>
@@ -146,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -203,15 +245,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -240,6 +303,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,149 +618,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/微信推送与需求报价/微信推送与需求报价功能数据字典.xlsx
+++ b/Documentation/微信推送与需求报价/微信推送与需求报价功能数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>DemandSubscription</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>留言内容</t>
+  </si>
+  <si>
+    <t>HandleStatus</t>
+  </si>
+  <si>
+    <t>报价处理状态，已处理或未处理</t>
   </si>
 </sst>
 </file>
@@ -618,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +644,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -669,7 +675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -692,8 +698,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -701,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -718,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -735,9 +741,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -746,7 +752,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -766,16 +772,19 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -795,16 +804,19 @@
         <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -812,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>

--- a/Documentation/微信推送与需求报价/微信推送与需求报价功能数据字典.xlsx
+++ b/Documentation/微信推送与需求报价/微信推送与需求报价功能数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>DemandSubscription</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>报价处理状态，已处理或未处理</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>是否删除</t>
   </si>
 </sst>
 </file>
@@ -624,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +650,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -675,7 +681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -698,8 +704,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -707,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -724,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -741,9 +747,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -752,7 +758,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -783,8 +789,11 @@
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -815,8 +824,11 @@
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -824,7 +836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -843,8 +855,11 @@
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,6 +877,9 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
